--- a/Nado Game/pyqt5/감면자료/xperp code comparasion table.xlsx
+++ b/Nado Game/pyqt5/감면자료/xperp code comparasion table.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\pygame\Nado Game\pyqt5\감면자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3C32D-AF53-47A1-8477-841FEE682A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78389065-0371-45AB-B965-2B98D04C261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1290" windowWidth="15540" windowHeight="14280" xr2:uid="{F4287AED-E29A-4F26-A7DC-1752CBD1210B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F4287AED-E29A-4F26-A7DC-1752CBD1210B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$D$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>XPERP 전기 및 수도 감면 코드 비교표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +270,82 @@
   </si>
   <si>
     <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고지서 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립유공자 할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대가족요금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회복지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다자녀할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차상위할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초주거교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출산가구할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가유공자할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['장애인 할인', '다자녀 할인', '대가족 할인', '복지추가감액', '의료기기 할인', '기초수급 할인', '출산가구 할인', '기초수급 할인 (주거, 교육)', '차상위계층 할인', '사회복지 할인', '독립유공 할인']</t>
+  </si>
+  <si>
+    <t>복지추가감액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>종별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,15 +370,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -356,13 +442,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,10 +473,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -389,6 +487,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,10 +829,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854A5F4E-303B-41E9-8A1E-F9EFD81C2FCC}">
-  <dimension ref="A1:H24"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,48 +843,55 @@
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="6" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="5" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -769,392 +904,1300 @@
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2">
         <v>6</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="I4" s="16" t="str">
+        <f>$A$4</f>
+        <v>전기</v>
+      </c>
+      <c r="J4" t="str">
+        <f>MID(B4,2,2)</f>
+        <v>가족</v>
+      </c>
+      <c r="K4" t="str">
+        <f>+E4</f>
+        <v>대가족 할인</v>
+      </c>
+      <c r="L4" t="str">
+        <f>+D4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="I5" s="16" t="str">
+        <f t="shared" ref="I5:I20" si="0">$A$4</f>
+        <v>전기</v>
+      </c>
+      <c r="J5" t="str">
+        <f>MID(B5,2,2)</f>
+        <v>가족</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K7" si="1">+E5</f>
+        <v>출산가구 할인</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L20" si="2">+D5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
+      <c r="I6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J6" t="str">
+        <f>MID(B6,2,2)</f>
+        <v>가족</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>다자녀 할인</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J7" t="str">
+        <f>MID(B7,2,2)</f>
+        <v>가족</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>의료기기 할인</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="G8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J8" t="str">
+        <f>MID(B8,2,2)</f>
+        <v>가족</v>
+      </c>
+      <c r="K8" t="str">
+        <f>+E8</f>
+        <v>대가족(다자녀)</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J9" t="str">
+        <f>LEFT(B9,2)</f>
+        <v>복지</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" ref="K9:K25" si="3">+E9</f>
+        <v>독립유공 할인</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10:J25" si="4">LEFT(B10,2)</f>
+        <v>복지</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>국가유공 할인</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v>민주유공 할인</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v>장애인 할인</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="3"/>
+        <v>사회복지 할인</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
+      <c r="G14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="3"/>
+        <v>기초수급 할인</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="3"/>
+        <v>기초수급 할인 (주거/교육)</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
+        <v>차상위계층 할인</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="3"/>
+        <v>교육 할인</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
+        <v>복지추가감액</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="2">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="2">
-        <v>9</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D20" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>전기</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>복지</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="I21" s="18" t="str">
+        <f>+$A$21</f>
+        <v>수도</v>
+      </c>
+      <c r="J21" t="str">
+        <f>LEFT(B21,2)</f>
+        <v>기초</v>
+      </c>
+      <c r="K21" t="str">
+        <f>+C21</f>
+        <v>기초생활</v>
+      </c>
+      <c r="L21" t="str">
+        <f>+D21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="18" t="str">
+        <f t="shared" ref="I22:I25" si="5">+$A$21</f>
+        <v>수도</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>다자</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K25" si="6">+C22</f>
+        <v>다자녀</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:L25" si="7">+D22</f>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="I23" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>수도</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>유공</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="6"/>
+        <v>유공자</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="I24" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>수도</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>중증</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="6"/>
+        <v>중증장애</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="7"/>
+        <v>중증장애</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>수도</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v>중복</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="6"/>
+        <v>중복할인1</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="7"/>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A19"/>
-    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A4:A20"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBB59CB-1095-45CD-851C-895890488597}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="str">
+        <f>+Sheet1!I3</f>
+        <v>종별</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>+Sheet1!J3</f>
+        <v>분류</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <f>+Sheet1!K3</f>
+        <v>종류</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>+Sheet1!L3</f>
+        <v>코드</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="str">
+        <f>+Sheet1!I4</f>
+        <v>전기</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>+Sheet1!J4</f>
+        <v>가족</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>+Sheet1!K4</f>
+        <v>대가족 할인</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>+Sheet1!L4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="str">
+        <f>+Sheet1!I5</f>
+        <v>전기</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f>+Sheet1!J5</f>
+        <v>가족</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>+Sheet1!K5</f>
+        <v>출산가구 할인</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>+Sheet1!L5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="str">
+        <f>+Sheet1!I6</f>
+        <v>전기</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>+Sheet1!J6</f>
+        <v>가족</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>+Sheet1!K6</f>
+        <v>다자녀 할인</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>+Sheet1!L6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="str">
+        <f>+Sheet1!I7</f>
+        <v>전기</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f>+Sheet1!J7</f>
+        <v>가족</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>+Sheet1!K7</f>
+        <v>의료기기 할인</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>+Sheet1!L7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="str">
+        <f>+Sheet1!I8</f>
+        <v>전기</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>+Sheet1!J8</f>
+        <v>가족</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>+Sheet1!K8</f>
+        <v>대가족(다자녀)</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>+Sheet1!L8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="str">
+        <f>+Sheet1!I9</f>
+        <v>전기</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>+Sheet1!J9</f>
+        <v>복지</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>+Sheet1!K9</f>
+        <v>독립유공 할인</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>+Sheet1!L9</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="str">
+        <f>+Sheet1!I10</f>
+        <v>전기</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f>+Sheet1!J10</f>
+        <v>복지</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>+Sheet1!K10</f>
+        <v>국가유공 할인</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>+Sheet1!L10</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="str">
+        <f>+Sheet1!I11</f>
+        <v>전기</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f>+Sheet1!J11</f>
+        <v>복지</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>+Sheet1!K11</f>
+        <v>민주유공 할인</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>+Sheet1!L11</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="str">
+        <f>+Sheet1!I12</f>
+        <v>전기</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>+Sheet1!J12</f>
+        <v>복지</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>+Sheet1!K12</f>
+        <v>장애인 할인</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>+Sheet1!L12</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="str">
+        <f>+Sheet1!I13</f>
+        <v>전기</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>+Sheet1!J13</f>
+        <v>복지</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>+Sheet1!K13</f>
+        <v>사회복지 할인</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>+Sheet1!L13</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="str">
+        <f>+Sheet1!I14</f>
+        <v>전기</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>+Sheet1!J14</f>
+        <v>복지</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>+Sheet1!K14</f>
+        <v>기초수급 할인</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>+Sheet1!L14</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="str">
+        <f>+Sheet1!I15</f>
+        <v>전기</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>+Sheet1!J15</f>
+        <v>복지</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>+Sheet1!K15</f>
+        <v>기초수급 할인 (주거/교육)</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>+Sheet1!L15</f>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="str">
+        <f>+Sheet1!I16</f>
+        <v>전기</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>+Sheet1!J16</f>
+        <v>복지</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>+Sheet1!K16</f>
+        <v>차상위계층 할인</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>+Sheet1!L16</f>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="str">
+        <f>+Sheet1!I17</f>
+        <v>전기</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>+Sheet1!J17</f>
+        <v>복지</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>+Sheet1!K17</f>
+        <v>교육 할인</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>+Sheet1!L17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="str">
+        <f>+Sheet1!I18</f>
+        <v>전기</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>+Sheet1!J18</f>
+        <v>복지</v>
+      </c>
+      <c r="C16" s="4">
+        <f>+Sheet1!K18</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>+Sheet1!L18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="str">
+        <f>+Sheet1!I19</f>
+        <v>전기</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>+Sheet1!J19</f>
+        <v>복지</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>+Sheet1!K19</f>
+        <v>복지추가감액</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>+Sheet1!L19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="str">
+        <f>+Sheet1!I20</f>
+        <v>전기</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>+Sheet1!J20</f>
+        <v>복지</v>
+      </c>
+      <c r="C18" s="4">
+        <f>+Sheet1!K20</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>+Sheet1!L20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="str">
+        <f>+Sheet1!I21</f>
+        <v>수도</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>+Sheet1!J21</f>
+        <v>기초</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>+Sheet1!K21</f>
+        <v>기초생활</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>+Sheet1!L21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="str">
+        <f>+Sheet1!I22</f>
+        <v>수도</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>+Sheet1!J22</f>
+        <v>다자</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>+Sheet1!K22</f>
+        <v>다자녀</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>+Sheet1!L22</f>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="str">
+        <f>+Sheet1!I23</f>
+        <v>수도</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>+Sheet1!J23</f>
+        <v>유공</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>+Sheet1!K23</f>
+        <v>유공자</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>+Sheet1!L23</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="str">
+        <f>+Sheet1!I24</f>
+        <v>수도</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>+Sheet1!J24</f>
+        <v>중증</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>+Sheet1!K24</f>
+        <v>중증장애</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>+Sheet1!L24</f>
+        <v>중증장애</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="str">
+        <f>+Sheet1!I25</f>
+        <v>수도</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>+Sheet1!J25</f>
+        <v>중복</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>+Sheet1!K25</f>
+        <v>중복할인1</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>+Sheet1!L25</f>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="1.7716535433070868" bottom="0.98425196850393704" header="1.299212598425197" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,굵게"&amp;16강남데시앙파크아파트 전기/수도 감면 코드 비교표</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Nado Game/pyqt5/감면자료/xperp code comparasion table.xlsx
+++ b/Nado Game/pyqt5/감면자료/xperp code comparasion table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\pygame\Nado Game\pyqt5\감면자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78389065-0371-45AB-B965-2B98D04C261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D463CF-0856-4A6C-9C70-6A76C8CF8002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F4287AED-E29A-4F26-A7DC-1752CBD1210B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15540" windowHeight="14280" xr2:uid="{F4287AED-E29A-4F26-A7DC-1752CBD1210B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>XPERP 전기 및 수도 감면 코드 비교표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,14 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,23 +484,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -514,6 +507,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,8 +842,8 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -854,44 +862,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -904,45 +912,45 @@
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="16" t="str">
+      <c r="I4" s="11" t="str">
         <f>$A$4</f>
         <v>전기</v>
       </c>
@@ -960,27 +968,27 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="16" t="str">
+      <c r="I5" s="11" t="str">
         <f t="shared" ref="I5:I20" si="0">$A$4</f>
         <v>전기</v>
       </c>
@@ -998,27 +1006,27 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="16" t="str">
+      <c r="I6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1036,27 +1044,27 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="4">
         <v>8</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1074,12 +1082,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1088,11 +1096,11 @@
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="16" t="str">
+      <c r="I8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1110,8 +1118,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1120,17 +1128,17 @@
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1139,7 +1147,7 @@
         <v>복지</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K9:K25" si="3">+E9</f>
+        <f t="shared" ref="K9:K20" si="3">+E9</f>
         <v>독립유공 할인</v>
       </c>
       <c r="L9" t="str">
@@ -1148,8 +1156,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1164,11 +1172,11 @@
       <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>68</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1186,8 +1194,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1204,7 +1212,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1222,8 +1230,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1232,17 +1240,17 @@
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1260,8 +1268,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1270,17 +1278,17 @@
       <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="2">
         <v>7</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1298,8 +1306,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1308,17 +1316,17 @@
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="2">
         <v>4</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1336,8 +1344,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1346,7 +1354,7 @@
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1356,7 +1364,7 @@
         <v>66</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1374,8 +1382,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1384,17 +1392,17 @@
       <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="2">
         <v>9</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1412,14 +1420,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1430,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1448,12 +1456,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="1"/>
@@ -1464,7 +1472,7 @@
         <v>57</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1482,21 +1490,21 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1514,21 +1522,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="16" t="str">
+      <c r="I20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>전기</v>
       </c>
@@ -1546,16 +1554,16 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1566,13 +1574,13 @@
       <c r="H21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="18" t="str">
+      <c r="I21" s="13" t="str">
         <f>+$A$21</f>
         <v>수도</v>
       </c>
       <c r="J21" t="str">
         <f>LEFT(B21,2)</f>
-        <v>기초</v>
+        <v>감면</v>
       </c>
       <c r="K21" t="str">
         <f>+C21</f>
@@ -1584,9 +1592,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>14</v>
@@ -1602,13 +1610,13 @@
       <c r="H22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="18" t="str">
+      <c r="I22" s="13" t="str">
         <f t="shared" ref="I22:I25" si="5">+$A$21</f>
         <v>수도</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="4"/>
-        <v>다자</v>
+        <v>감면</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" ref="K22:K25" si="6">+C22</f>
@@ -1620,14 +1628,14 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1638,13 +1646,13 @@
       <c r="H23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="18" t="str">
+      <c r="I23" s="13" t="str">
         <f t="shared" si="5"/>
         <v>수도</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="4"/>
-        <v>유공</v>
+        <v>감면</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="6"/>
@@ -1656,15 +1664,15 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>52</v>
@@ -1674,13 +1682,13 @@
       <c r="H24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="18" t="str">
+      <c r="I24" s="13" t="str">
         <f t="shared" si="5"/>
         <v>수도</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="4"/>
-        <v>중증</v>
+        <v>감면</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="6"/>
@@ -1688,13 +1696,13 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="7"/>
-        <v>중증장애</v>
+        <v>T</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>47</v>
@@ -1706,13 +1714,13 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="18" t="str">
+      <c r="I25" s="13" t="str">
         <f t="shared" si="5"/>
         <v>수도</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="4"/>
-        <v>중복</v>
+        <v>감면</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="6"/>
@@ -1724,16 +1732,16 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="17"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1758,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBB59CB-1095-45CD-851C-895890488597}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2101,7 +2109,7 @@
       </c>
       <c r="B19" s="4" t="str">
         <f>+Sheet1!J21</f>
-        <v>기초</v>
+        <v>감면</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>+Sheet1!K21</f>
@@ -2119,7 +2127,7 @@
       </c>
       <c r="B20" s="4" t="str">
         <f>+Sheet1!J22</f>
-        <v>다자</v>
+        <v>감면</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>+Sheet1!K22</f>
@@ -2137,7 +2145,7 @@
       </c>
       <c r="B21" s="4" t="str">
         <f>+Sheet1!J23</f>
-        <v>유공</v>
+        <v>감면</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>+Sheet1!K23</f>
@@ -2155,7 +2163,7 @@
       </c>
       <c r="B22" s="4" t="str">
         <f>+Sheet1!J24</f>
-        <v>중증</v>
+        <v>감면</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>+Sheet1!K24</f>
@@ -2163,7 +2171,7 @@
       </c>
       <c r="D22" s="4" t="str">
         <f>+Sheet1!L24</f>
-        <v>중증장애</v>
+        <v>T</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,7 +2181,7 @@
       </c>
       <c r="B23" s="4" t="str">
         <f>+Sheet1!J25</f>
-        <v>중복</v>
+        <v>감면</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>+Sheet1!K25</f>
